--- a/csv2xlsx/example/template5footer.xlsx
+++ b/csv2xlsx/example/template5footer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\da\Src\Git\go\csv2xlsx\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEB1BE2-536D-4958-91C8-73D088CB9C36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F92BA-7E45-4722-BB77-DB0DC4CAF99C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="5595" windowWidth="28800" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="1005" windowWidth="32490" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sh2" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>{PATH}</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -237,6 +240,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Huomautus" xfId="1" builtinId="10"/>
@@ -623,7 +627,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,6 +706,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
     </row>

--- a/csv2xlsx/example/template5footer.xlsx
+++ b/csv2xlsx/example/template5footer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\da\Src\Git\go\csv2xlsx\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F92BA-7E45-4722-BB77-DB0DC4CAF99C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA0D9CC-0594-4E47-8E27-4ABCC5D4833E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1005" windowWidth="32490" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="315" windowWidth="32490" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sh2" sheetId="2" r:id="rId1"/>
@@ -205,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -241,6 +241,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Huomautus" xfId="1" builtinId="10"/>
@@ -627,7 +630,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,8 +654,11 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="2" t="e">
+        <f ca="1">SUM((INDIRECT(ADDRESS(ROW()-1,COLUMN())):(INDIRECT(ADDRESS(5,COLUMN())))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D1" s="17"/>
       <c r="E1" s="2"/>
       <c r="F1" s="4"/>
       <c r="G1" s="2"/>
